--- a/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>DCLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,104 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
@@ -764,7 +771,7 @@
         <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -784,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -819,31 +832,37 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -852,7 +871,7 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
@@ -863,8 +882,14 @@
       <c r="P10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,34 +1123,36 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1116,8 +1169,14 @@
       <c r="P17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1137,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1160,8 +1219,14 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1258,16 +1331,22 @@
         <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1389,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1337,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -1346,16 +1431,22 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1469,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1478,16 +1581,22 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1513,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1522,16 +1631,22 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1889,14 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1777,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -1786,16 +1931,22 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1865,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -1874,65 +2031,77 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1997,22 +2170,28 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2229,10 +2432,16 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2784,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2569,22 +2820,28 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,8 +3024,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3324,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3059,8 +3374,14 @@
       <c r="P66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3594,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3283,22 +3630,28 @@
         <v>-10000</v>
       </c>
       <c r="L72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="N72" s="3">
         <v>-9900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-9900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-9800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-9800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,16 +3794,22 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -3447,16 +3818,16 @@
         <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
@@ -3468,13 +3839,19 @@
         <v>0</v>
       </c>
       <c r="O76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3593,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -3602,16 +3991,22 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3922,13 +4355,13 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4393,15 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
@@ -3968,38 +4409,44 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4115,23 +4574,29 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>DCLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,99 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
@@ -762,10 +766,10 @@
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
@@ -777,19 +781,22 @@
         <v>200</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -838,22 +845,25 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
@@ -862,10 +872,10 @@
         <v>200</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
@@ -877,19 +887,22 @@
         <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,22 +1151,23 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1149,13 +1176,13 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1202,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1214,19 +1244,22 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1337,16 +1374,19 @@
         <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1428,13 +1471,13 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1443,10 +1486,13 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1578,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1593,10 +1645,13 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1628,13 +1683,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1643,10 +1698,13 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1928,13 +2001,13 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -1943,10 +2016,13 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2028,13 +2107,13 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2043,65 +2122,71 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2176,22 +2263,25 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2438,10 +2540,13 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2826,11 +2952,11 @@
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
@@ -2838,10 +2964,13 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3636,22 +3810,25 @@
         <v>-10000</v>
       </c>
       <c r="N72" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="O72" s="3">
         <v>-9900</v>
       </c>
       <c r="P72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="Q72" s="3">
         <v>-9800</v>
       </c>
       <c r="R72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="S72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3812,7 +3998,7 @@
         <v>100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -3824,13 +4010,13 @@
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
@@ -3845,13 +4031,16 @@
         <v>0</v>
       </c>
       <c r="Q76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R76" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3988,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4003,10 +4198,13 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4361,10 +4578,10 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
@@ -4415,38 +4636,41 @@
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4580,23 +4810,26 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
+      <c r="P94" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>DCLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,16 +755,16 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
@@ -769,10 +773,10 @@
         <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>200</v>
@@ -784,33 +788,36 @@
         <v>200</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -848,25 +855,28 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
@@ -875,10 +885,10 @@
         <v>200</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
@@ -890,19 +900,22 @@
         <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,16 +1188,16 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1179,13 +1206,13 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1235,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1247,19 +1277,22 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1377,16 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1474,13 +1517,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1489,10 +1532,13 @@
         <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1633,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -1648,10 +1700,13 @@
         <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1686,13 +1741,13 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -1701,10 +1756,13 @@
         <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2004,13 +2077,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -2019,10 +2092,13 @@
         <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2110,13 +2189,13 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2125,68 +2204,74 @@
         <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2266,22 +2353,25 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2543,10 +2645,13 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2955,11 +3081,11 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
@@ -2967,10 +3093,13 @@
         <v>100</v>
       </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3813,22 +3987,25 @@
         <v>-10000</v>
       </c>
       <c r="O72" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="P72" s="3">
         <v>-9900</v>
       </c>
       <c r="Q72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="R72" s="3">
         <v>-9800</v>
       </c>
       <c r="S72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="T72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4001,7 +4187,7 @@
         <v>100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -4013,13 +4199,13 @@
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
@@ -4034,13 +4220,16 @@
         <v>0</v>
       </c>
       <c r="R76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S76" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4186,13 +4381,13 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -4201,10 +4396,13 @@
         <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4581,10 +4798,10 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,8 +4848,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -4639,38 +4860,41 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
+      <c r="Q91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4813,23 +5043,26 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
+      <c r="Q94" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>DCLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,16 +761,16 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
@@ -776,10 +779,10 @@
         <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
@@ -791,36 +794,39 @@
         <v>200</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -858,28 +864,31 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -888,10 +897,10 @@
         <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
@@ -903,19 +912,22 @@
         <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,28 +1204,29 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -1209,13 +1235,13 @@
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1235,13 +1261,16 @@
       <c r="T17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1250,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -1268,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1280,19 +1309,22 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1417,21 +1453,24 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1481,8 +1520,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1520,13 +1562,13 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1535,10 +1577,13 @@
         <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1688,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -1703,10 +1754,13 @@
         <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1744,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
@@ -1759,10 +1813,13 @@
         <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2110,11 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2080,13 +2152,13 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
@@ -2095,10 +2167,13 @@
         <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2192,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
@@ -2207,71 +2285,77 @@
         <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2356,22 +2442,25 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2648,10 +2749,13 @@
         <v>100</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3084,11 +3209,11 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
@@ -3096,10 +3221,13 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3387,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,8 +3446,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3800,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3990,22 +4163,25 @@
         <v>-10000</v>
       </c>
       <c r="P72" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="Q72" s="3">
         <v>-9900</v>
       </c>
       <c r="R72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="S72" s="3">
         <v>-9800</v>
       </c>
       <c r="T72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="U72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,13 +4354,16 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E76" s="3">
         <v>100</v>
@@ -4190,7 +4375,7 @@
         <v>100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
@@ -4202,13 +4387,13 @@
         <v>0</v>
       </c>
       <c r="L76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M76" s="3">
         <v>100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
@@ -4223,13 +4408,16 @@
         <v>0</v>
       </c>
       <c r="S76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T76" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4384,13 +4578,13 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
@@ -4399,10 +4593,13 @@
         <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4801,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4851,8 +5071,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -4863,38 +5083,41 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5046,23 +5275,26 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
+      <c r="R94" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>DCLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -764,16 +768,16 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
@@ -782,10 +786,10 @@
         <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
@@ -797,39 +801,42 @@
         <v>200</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -867,8 +874,11 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,22 +886,22 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -900,10 +910,10 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
@@ -915,19 +925,22 @@
         <v>200</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1214,22 +1241,22 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1238,13 +1265,13 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1264,17 +1291,20 @@
       <c r="U17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
@@ -1282,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1300,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1312,19 +1342,22 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1456,25 +1493,28 @@
         <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1523,8 +1563,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1565,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -1580,10 +1623,13 @@
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1742,13 +1794,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
@@ -1757,10 +1809,13 @@
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1801,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -1816,10 +1871,13 @@
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,8 +2183,11 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2155,13 +2228,13 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2170,10 +2243,13 @@
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2273,13 +2352,13 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -2288,74 +2367,80 @@
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2445,22 +2532,25 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,13 +2732,16 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2752,10 +2854,13 @@
         <v>100</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3212,11 +3338,11 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
@@ -3224,10 +3350,13 @@
         <v>100</v>
       </c>
       <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,8 +3958,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,8 +4292,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4166,22 +4340,25 @@
         <v>-10000</v>
       </c>
       <c r="Q72" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="R72" s="3">
         <v>-9900</v>
       </c>
       <c r="S72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="T72" s="3">
         <v>-9800</v>
       </c>
       <c r="U72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="V72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,8 +4540,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4366,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
         <v>100</v>
@@ -4378,7 +4564,7 @@
         <v>100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -4390,13 +4576,13 @@
         <v>0</v>
       </c>
       <c r="M76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N76" s="3">
         <v>100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
@@ -4411,13 +4597,16 @@
         <v>0</v>
       </c>
       <c r="T76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U76" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4581,13 +4776,13 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -4596,10 +4791,13 @@
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5020,10 +5237,10 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,13 +5277,14 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5074,8 +5295,8 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
@@ -5086,38 +5307,41 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5278,23 +5508,26 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
+      <c r="S94" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>DCLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,7 +766,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -771,16 +775,16 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
@@ -789,10 +793,10 @@
         <v>200</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
@@ -804,19 +808,22 @@
         <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,22 +831,22 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -877,8 +884,11 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -889,22 +899,22 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
@@ -913,10 +923,10 @@
         <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
@@ -928,19 +938,22 @@
         <v>200</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,34 +1258,35 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1268,13 +1295,13 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
@@ -1294,20 +1321,23 @@
       <c r="V17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1315,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1333,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -1345,19 +1375,22 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1496,28 +1533,31 @@
         <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1611,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
@@ -1626,10 +1669,13 @@
         <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1797,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
@@ -1812,10 +1864,13 @@
         <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1859,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
@@ -1874,10 +1929,13 @@
         <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2231,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
@@ -2246,10 +2319,13 @@
         <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2355,13 +2434,13 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
@@ -2370,77 +2449,83 @@
         <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2535,22 +2622,25 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,16 +2831,19 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2857,10 +2959,13 @@
         <v>100</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3341,11 +3467,11 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
       <c r="T54" s="3">
         <v>100</v>
       </c>
@@ -3353,10 +3479,13 @@
         <v>100</v>
       </c>
       <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4343,22 +4517,25 @@
         <v>-10000</v>
       </c>
       <c r="R72" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="S72" s="3">
         <v>-9900</v>
       </c>
       <c r="T72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="U72" s="3">
         <v>-9800</v>
       </c>
       <c r="V72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="W72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4555,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>100</v>
@@ -4567,7 +4753,7 @@
         <v>100</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -4579,13 +4765,13 @@
         <v>0</v>
       </c>
       <c r="N76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O76" s="3">
         <v>100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -4600,13 +4786,16 @@
         <v>0</v>
       </c>
       <c r="U76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V76" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4779,13 +4974,13 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
@@ -4794,10 +4989,13 @@
         <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5240,10 +5457,10 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,16 +5498,17 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5298,8 +5519,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -5310,38 +5531,41 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
+      <c r="Q91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
+      <c r="T91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5511,23 +5741,26 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3" t="s">
+      <c r="T94" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>DCLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -778,16 +782,16 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>200</v>
@@ -796,10 +800,10 @@
         <v>200</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
@@ -811,19 +815,22 @@
         <v>200</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
       <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -834,22 +841,22 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -887,13 +894,16 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -902,22 +912,22 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
@@ -926,10 +936,10 @@
         <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
@@ -941,19 +951,22 @@
         <v>200</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
       <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,28 +1295,28 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1298,13 +1325,13 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
@@ -1324,23 +1351,26 @@
       <c r="W17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1348,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1366,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -1378,19 +1408,22 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1536,16 +1573,19 @@
         <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
         <v>-100</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1555,12 +1595,12 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1609,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1657,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
@@ -1672,10 +1715,13 @@
         <v>-100</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1852,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
@@ -1867,10 +1919,13 @@
         <v>-100</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1917,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
@@ -1932,10 +1987,13 @@
         <v>-100</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2307,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
@@ -2322,10 +2395,13 @@
         <v>-100</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2437,13 +2516,13 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
@@ -2452,80 +2531,86 @@
         <v>-100</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2625,22 +2712,25 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2845,8 +2944,8 @@
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2962,10 +3064,13 @@
         <v>100</v>
       </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3470,11 +3596,11 @@
         <v>100</v>
       </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
-        <v>100</v>
-      </c>
       <c r="U54" s="3">
         <v>100</v>
       </c>
@@ -3482,10 +3608,13 @@
         <v>100</v>
       </c>
       <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4520,22 +4694,25 @@
         <v>-10000</v>
       </c>
       <c r="S72" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="T72" s="3">
         <v>-9900</v>
       </c>
       <c r="U72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="V72" s="3">
         <v>-9800</v>
       </c>
       <c r="W72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="X72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4744,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>100</v>
@@ -4756,7 +4942,7 @@
         <v>100</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
@@ -4768,13 +4954,13 @@
         <v>0</v>
       </c>
       <c r="O76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
         <v>100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R76" s="3">
         <v>0</v>
@@ -4789,13 +4975,16 @@
         <v>0</v>
       </c>
       <c r="V76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W76" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4977,13 +5172,13 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
@@ -4992,10 +5187,13 @@
         <v>-100</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5460,10 +5677,10 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5510,8 +5731,8 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5522,8 +5743,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -5534,38 +5755,41 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
+      <c r="U91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5744,23 +5974,26 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3" t="s">
+      <c r="U94" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>DCLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,13 +773,13 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -785,16 +788,16 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
@@ -803,10 +806,10 @@
         <v>200</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
@@ -818,19 +821,22 @@
         <v>200</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
       <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -844,22 +850,22 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -897,8 +903,11 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
@@ -915,22 +924,22 @@
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
@@ -939,10 +948,10 @@
         <v>200</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
@@ -954,19 +963,22 @@
         <v>200</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
       <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,31 +1143,34 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1195,13 +1214,16 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1298,28 +1324,28 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
@@ -1328,13 +1354,13 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1354,8 +1380,11 @@
       <c r="X17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,17 +1392,17 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1381,10 +1410,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1399,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
@@ -1411,19 +1440,22 @@
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1576,16 +1612,19 @@
         <v>0</v>
       </c>
       <c r="V21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
         <v>-100</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1598,12 +1637,12 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1652,8 +1691,11 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1703,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
@@ -1718,10 +1760,13 @@
         <v>-100</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1904,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1907,13 +1958,13 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
@@ -1922,10 +1973,13 @@
         <v>-100</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1975,13 +2029,13 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
@@ -1990,10 +2044,13 @@
         <v>-100</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,8 +2401,11 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2383,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
@@ -2398,10 +2470,13 @@
         <v>-100</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2543,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2519,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
@@ -2534,83 +2612,89 @@
         <v>-100</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2715,22 +2801,25 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2947,8 +3045,8 @@
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3067,10 +3168,13 @@
         <v>100</v>
       </c>
       <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3599,11 +3724,11 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
       <c r="V54" s="3">
         <v>100</v>
       </c>
@@ -3611,10 +3736,13 @@
         <v>100</v>
       </c>
       <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3869,13 +4005,16 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -3937,8 +4076,11 @@
       <c r="X60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,13 +4431,16 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4813,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4697,22 +4870,25 @@
         <v>-10000</v>
       </c>
       <c r="T72" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="U72" s="3">
         <v>-9900</v>
       </c>
       <c r="V72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="W72" s="3">
         <v>-9800</v>
       </c>
       <c r="X72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,13 +5097,16 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -4933,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
         <v>100</v>
@@ -4945,7 +5130,7 @@
         <v>100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
@@ -4957,13 +5142,13 @@
         <v>0</v>
       </c>
       <c r="P76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="3">
         <v>100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
@@ -4978,13 +5163,16 @@
         <v>0</v>
       </c>
       <c r="W76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X76" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5239,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5175,13 +5369,13 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
@@ -5190,10 +5384,13 @@
         <v>-100</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5680,10 +5896,10 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,8 +5954,8 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5746,8 +5966,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -5758,38 +5978,41 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3" t="s">
+      <c r="V91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5977,23 +6206,26 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3" t="s">
+      <c r="V94" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>DCLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,165 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>200</v>
@@ -824,7 +832,7 @@
         <v>200</v>
       </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W8" s="3">
         <v>200</v>
@@ -835,13 +843,19 @@
       <c r="Y8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -853,7 +867,7 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -862,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -906,58 +920,64 @@
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
       </c>
       <c r="S10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>200</v>
@@ -966,7 +986,7 @@
         <v>200</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W10" s="3">
         <v>200</v>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,19 +1180,25 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1172,11 +1212,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1217,20 +1257,26 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1364,10 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1321,52 +1375,52 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
@@ -1383,43 +1437,49 @@
       <c r="Y17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1431,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
@@ -1454,8 +1514,14 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,8 +1620,14 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1615,16 +1689,22 @@
         <v>0</v>
       </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1640,15 +1720,15 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1694,8 +1774,14 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1748,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
@@ -1757,16 +1843,22 @@
         <v>-100</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,8 +2005,14 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1961,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
@@ -1970,16 +2074,22 @@
         <v>-100</v>
       </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2032,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
@@ -2041,16 +2151,22 @@
         <v>-100</v>
       </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2404,8 +2544,14 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2458,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
@@ -2467,16 +2613,22 @@
         <v>-100</v>
       </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,8 +2698,14 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2600,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
@@ -2609,92 +2767,104 @@
         <v>-100</v>
       </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2919,10 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2804,22 +2978,28 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3048,11 +3246,11 @@
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3102,8 +3300,14 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3171,10 +3375,16 @@
         <v>100</v>
       </c>
       <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3916,14 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3727,22 +3979,28 @@
         <v>100</v>
       </c>
       <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
-        <v>100</v>
-      </c>
-      <c r="W54" s="3">
-        <v>100</v>
-      </c>
       <c r="X54" s="3">
         <v>100</v>
       </c>
       <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3804,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -3866,16 +4128,22 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3937,8 +4205,14 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4008,8 +4282,14 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4020,7 +4300,7 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -4079,8 +4359,14 @@
       <c r="Y60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,8 +4744,14 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4446,7 +4762,7 @@
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -4505,8 +4821,14 @@
       <c r="Y66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,8 +5158,14 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4873,22 +5221,28 @@
         <v>-10000</v>
       </c>
       <c r="U72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="W72" s="3">
         <v>-9900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-9900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-9800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-9800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,8 +5466,14 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5112,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -5121,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>100</v>
@@ -5133,10 +5505,10 @@
         <v>100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
@@ -5145,16 +5517,16 @@
         <v>0</v>
       </c>
       <c r="Q76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U76" s="3">
         <v>0</v>
@@ -5166,13 +5538,19 @@
         <v>0</v>
       </c>
       <c r="X76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,84 +5620,96 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5372,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
@@ -5381,16 +5771,22 @@
         <v>-100</v>
       </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5899,13 +6333,13 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -5913,8 +6347,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5957,11 +6399,11 @@
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5969,11 +6411,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -5981,38 +6423,44 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3" t="s">
+      <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3" t="s">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,16 +6607,22 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6209,23 +6669,29 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y94" s="3" t="s">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6606,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>DCLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,128 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
@@ -790,13 +794,13 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -805,16 +809,16 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
@@ -823,10 +827,10 @@
         <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
         <v>200</v>
@@ -838,19 +842,22 @@
         <v>200</v>
       </c>
       <c r="X8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
         <v>200</v>
       </c>
-      <c r="Z8" s="3">
-        <v>100</v>
-      </c>
       <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -873,22 +880,22 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -926,17 +933,20 @@
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
@@ -944,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
@@ -953,22 +963,22 @@
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
@@ -977,10 +987,10 @@
         <v>200</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
@@ -992,19 +1002,22 @@
         <v>200</v>
       </c>
       <c r="X10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3">
-        <v>100</v>
-      </c>
       <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,11 +1217,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1218,8 +1238,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1274,12 +1297,12 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,11 +1402,11 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
@@ -1387,28 +1414,28 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
@@ -1417,13 +1444,13 @@
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
@@ -1443,35 +1470,38 @@
       <c r="AA17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1479,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1497,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
@@ -1509,19 +1539,22 @@
         <v>0</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1695,16 +1732,19 @@
         <v>0</v>
       </c>
       <c r="Y21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="3">
         <v>-100</v>
       </c>
       <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1726,12 +1766,12 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1840,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="3">
         <v>-100</v>
@@ -1855,10 +1898,13 @@
         <v>-100</v>
       </c>
       <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2071,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
@@ -2086,10 +2138,13 @@
         <v>-100</v>
       </c>
       <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2148,13 +2203,13 @@
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
@@ -2163,10 +2218,13 @@
         <v>-100</v>
       </c>
       <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,8 +2620,11 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2610,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
@@ -2625,10 +2698,13 @@
         <v>-100</v>
       </c>
       <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2764,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
@@ -2779,92 +2858,98 @@
         <v>-100</v>
       </c>
       <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2984,22 +3071,25 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,28 +3325,31 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3381,10 +3483,13 @@
         <v>100</v>
       </c>
       <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3985,11 +4111,11 @@
         <v>100</v>
       </c>
       <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
-        <v>100</v>
-      </c>
       <c r="Y54" s="3">
         <v>100</v>
       </c>
@@ -3997,10 +4123,13 @@
         <v>100</v>
       </c>
       <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4145,8 +4279,8 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4297,13 +4437,13 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4759,13 +4917,13 @@
         <v>0</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5227,22 +5401,25 @@
         <v>-10000</v>
       </c>
       <c r="W72" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="X72" s="3">
         <v>-9900</v>
       </c>
       <c r="Y72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="Z72" s="3">
         <v>-9800</v>
       </c>
       <c r="AA72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5481,13 +5667,13 @@
         <v>100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -5499,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>100</v>
@@ -5511,7 +5697,7 @@
         <v>100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
@@ -5523,13 +5709,13 @@
         <v>0</v>
       </c>
       <c r="S76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T76" s="3">
         <v>100</v>
       </c>
       <c r="U76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V76" s="3">
         <v>0</v>
@@ -5544,13 +5730,16 @@
         <v>0</v>
       </c>
       <c r="Z76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5768,13 +5963,13 @@
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
@@ -5783,10 +5978,13 @@
         <v>-100</v>
       </c>
       <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6339,10 +6556,10 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6405,8 +6626,8 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6417,8 +6638,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -6429,38 +6650,41 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3" t="s">
+      <c r="V91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3" t="s">
+      <c r="Y91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,19 +6840,22 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -6675,23 +6905,26 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3" t="s">
+      <c r="Y94" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>DCLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,58 +792,58 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
-      </c>
-      <c r="O8" s="3">
-        <v>200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
       </c>
       <c r="R8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U8" s="3">
         <v>200</v>
       </c>
       <c r="V8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
         <v>200</v>
@@ -845,7 +852,7 @@
         <v>200</v>
       </c>
       <c r="Y8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z8" s="3">
         <v>200</v>
@@ -856,22 +863,28 @@
       <c r="AB8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -883,7 +896,7 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -892,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -936,67 +949,73 @@
       <c r="AB9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
         <v>200</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
       </c>
       <c r="V10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W10" s="3">
         <v>200</v>
@@ -1005,7 +1024,7 @@
         <v>200</v>
       </c>
       <c r="Y10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z10" s="3">
         <v>200</v>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,28 +1239,34 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1241,11 +1280,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1300,15 +1345,15 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,70 +1444,72 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
@@ -1473,52 +1526,58 @@
       <c r="AB17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -1530,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
       <c r="Y18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3">
         <v>0</v>
@@ -1553,8 +1612,14 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,13 +1648,15 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1663,13 +1730,19 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1735,24 +1808,30 @@
         <v>0</v>
       </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1769,15 +1848,15 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1823,8 +1902,14 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1886,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
@@ -1895,16 +1980,22 @@
         <v>-100</v>
       </c>
       <c r="Z23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
         <v>-100</v>
       </c>
       <c r="AB23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,13 +2160,19 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2126,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>0</v>
@@ -2135,21 +2238,27 @@
         <v>-100</v>
       </c>
       <c r="Z26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
         <v>-100</v>
       </c>
       <c r="AB26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2206,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>0</v>
@@ -2215,16 +2324,22 @@
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
         <v>-100</v>
       </c>
       <c r="AB27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,13 +2676,19 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2623,13 +2762,19 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2686,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>0</v>
@@ -2695,16 +2840,22 @@
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="3">
         <v>-100</v>
       </c>
       <c r="AB33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,13 +2934,19 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2846,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>0</v>
@@ -2855,101 +3012,113 @@
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="3">
         <v>-100</v>
       </c>
       <c r="AB35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,13 +3179,15 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -3074,22 +3247,28 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3339,20 +3536,20 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3408,13 +3605,19 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -3486,10 +3689,16 @@
         <v>100</v>
       </c>
       <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,13 +4293,19 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -4114,22 +4365,28 @@
         <v>100</v>
       </c>
       <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>100</v>
-      </c>
       <c r="AA54" s="3">
         <v>100</v>
       </c>
       <c r="AB54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4200,13 +4461,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -4268,25 +4529,31 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -4348,8 +4615,14 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4428,8 +4701,14 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4440,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -4449,7 +4728,7 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -4508,8 +4787,14 @@
       <c r="AB60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,19 +5217,25 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -4929,7 +5244,7 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -4988,8 +5303,14 @@
       <c r="AB66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,8 +5679,14 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5404,22 +5751,28 @@
         <v>-10000</v>
       </c>
       <c r="X72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-9900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-9900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-9800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-9800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,8 +6023,14 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5670,7 +6041,7 @@
         <v>100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G76" s="3">
         <v>100</v>
@@ -5679,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -5688,10 +6059,10 @@
         <v>0</v>
       </c>
       <c r="L76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N76" s="3">
         <v>100</v>
@@ -5700,10 +6071,10 @@
         <v>100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R76" s="3">
         <v>0</v>
@@ -5712,16 +6083,16 @@
         <v>0</v>
       </c>
       <c r="T76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X76" s="3">
         <v>0</v>
@@ -5733,13 +6104,19 @@
         <v>0</v>
       </c>
       <c r="AA76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB76" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,98 +6195,110 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5966,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>0</v>
@@ -5975,16 +6364,22 @@
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="3">
         <v>-100</v>
       </c>
       <c r="AB81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,13 +6920,19 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -6559,13 +6992,13 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
@@ -6573,8 +7006,14 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,49 +7042,51 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
@@ -6653,38 +7094,44 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3" t="s">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB91" s="3" t="s">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,26 +7296,32 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -6908,23 +7367,29 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB94" s="3" t="s">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7353,8 +7844,14 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,13 +7930,19 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>DCLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -798,11 +802,11 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
@@ -810,13 +814,13 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
@@ -825,16 +829,16 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>200</v>
@@ -843,10 +847,10 @@
         <v>200</v>
       </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X8" s="3">
         <v>200</v>
@@ -858,27 +862,30 @@
         <v>200</v>
       </c>
       <c r="AA8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="3">
         <v>200</v>
       </c>
-      <c r="AC8" s="3">
-        <v>100</v>
-      </c>
       <c r="AD8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -887,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -902,22 +909,22 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -955,26 +962,29 @@
       <c r="AD9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -982,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
@@ -991,22 +1001,22 @@
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>200</v>
@@ -1015,10 +1025,10 @@
         <v>200</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X10" s="3">
         <v>200</v>
@@ -1030,19 +1040,22 @@
         <v>200</v>
       </c>
       <c r="AA10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
         <v>200</v>
       </c>
-      <c r="AC10" s="3">
-        <v>100</v>
-      </c>
       <c r="AD10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,19 +1262,22 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1265,11 +1285,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1286,8 +1306,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1351,12 +1374,12 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,13 +1472,14 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1464,11 +1491,11 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
@@ -1476,28 +1503,28 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1506,13 +1533,13 @@
         <v>200</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
       <c r="X17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y17" s="3">
         <v>200</v>
@@ -1532,13 +1559,16 @@
       <c r="AD17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1547,29 +1577,29 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1577,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
@@ -1595,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="3">
         <v>0</v>
@@ -1607,19 +1637,22 @@
         <v>0</v>
       </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
       <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,13 +1683,14 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1736,13 +1770,16 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1814,27 +1851,30 @@
         <v>0</v>
       </c>
       <c r="AB21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="3">
         <v>-100</v>
       </c>
       <c r="AD21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1854,12 +1894,12 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1908,8 +1948,11 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1977,13 +2020,13 @@
         <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="3">
         <v>-100</v>
@@ -1992,10 +2035,13 @@
         <v>-100</v>
       </c>
       <c r="AD23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,13 +2215,16 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2235,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="3">
         <v>-100</v>
@@ -2250,15 +2302,18 @@
         <v>-100</v>
       </c>
       <c r="AD26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2321,13 +2376,13 @@
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="3">
         <v>-100</v>
@@ -2336,10 +2391,13 @@
         <v>-100</v>
       </c>
       <c r="AD27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,13 +2749,16 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2768,13 +2838,16 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2837,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="3">
         <v>-100</v>
@@ -2852,10 +2925,13 @@
         <v>-100</v>
       </c>
       <c r="AD33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,13 +3016,16 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -3009,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="3">
         <v>-100</v>
@@ -3024,101 +3103,107 @@
         <v>-100</v>
       </c>
       <c r="AD35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,17 +3267,18 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -3253,22 +3340,25 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,13 +3443,16 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3536,8 +3635,8 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -3551,8 +3650,8 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3611,17 +3710,20 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
@@ -3695,10 +3797,13 @@
         <v>100</v>
       </c>
       <c r="AD46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4308,7 +4434,7 @@
         <v>300</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
@@ -4371,11 +4497,11 @@
         <v>100</v>
       </c>
       <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
         <v>200</v>
       </c>
-      <c r="AA54" s="3">
-        <v>100</v>
-      </c>
       <c r="AB54" s="3">
         <v>100</v>
       </c>
@@ -4383,10 +4509,13 @@
         <v>100</v>
       </c>
       <c r="AD54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4467,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -4535,19 +4666,22 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -4555,8 +4689,8 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -4621,16 +4755,19 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -4707,16 +4844,19 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -4725,13 +4865,13 @@
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,17 +5378,20 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
@@ -5241,13 +5399,13 @@
         <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5757,22 +5931,25 @@
         <v>-10000</v>
       </c>
       <c r="Z72" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="AA72" s="3">
         <v>-9900</v>
       </c>
       <c r="AB72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="AC72" s="3">
         <v>-9800</v>
       </c>
       <c r="AD72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,8 +6212,11 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6047,13 +6233,13 @@
         <v>100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -6065,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="N76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O76" s="3">
         <v>100</v>
@@ -6077,7 +6263,7 @@
         <v>100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
@@ -6089,13 +6275,13 @@
         <v>0</v>
       </c>
       <c r="V76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W76" s="3">
         <v>100</v>
       </c>
       <c r="X76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y76" s="3">
         <v>0</v>
@@ -6110,13 +6296,16 @@
         <v>0</v>
       </c>
       <c r="AC76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD76" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,104 +6390,110 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -6361,13 +6556,13 @@
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB81" s="3">
         <v>-100</v>
@@ -6376,10 +6571,13 @@
         <v>-100</v>
       </c>
       <c r="AD81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,17 +7140,20 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -6998,10 +7215,10 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB89" s="3">
         <v>0</v>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7070,14 +7291,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -7088,8 +7309,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
@@ -7100,38 +7321,41 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3" t="s">
+      <c r="Y91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC91" s="3" t="s">
+      <c r="AB91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
       </c>
       <c r="AD91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7316,14 +7546,14 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -7373,23 +7603,26 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>8</v>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC94" s="3" t="s">
+      <c r="AB94" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
       </c>
       <c r="AD94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,17 +8185,20 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCLT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>DCLT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -805,11 +809,11 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
@@ -817,13 +821,13 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>200</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
@@ -832,16 +836,16 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
         <v>200</v>
@@ -850,10 +854,10 @@
         <v>200</v>
       </c>
       <c r="W8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y8" s="3">
         <v>200</v>
@@ -865,30 +869,33 @@
         <v>200</v>
       </c>
       <c r="AB8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="3">
         <v>200</v>
       </c>
-      <c r="AD8" s="3">
-        <v>100</v>
-      </c>
       <c r="AE8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -897,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -912,22 +919,22 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -965,29 +972,32 @@
       <c r="AE9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
@@ -995,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
@@ -1004,22 +1014,22 @@
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
@@ -1028,10 +1038,10 @@
         <v>200</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y10" s="3">
         <v>200</v>
@@ -1043,19 +1053,22 @@
         <v>200</v>
       </c>
       <c r="AB10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="3">
         <v>200</v>
       </c>
-      <c r="AD10" s="3">
-        <v>100</v>
-      </c>
       <c r="AE10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1276,11 +1296,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1288,11 +1308,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1309,8 +1329,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1377,12 +1400,12 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,13 +1499,14 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1494,11 +1521,11 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
@@ -1506,28 +1533,28 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
@@ -1536,13 +1563,13 @@
         <v>200</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
       </c>
       <c r="Y17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z17" s="3">
         <v>200</v>
@@ -1562,13 +1589,16 @@
       <c r="AE17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1580,29 +1610,29 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1610,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
@@ -1628,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="X18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z18" s="3">
         <v>0</v>
@@ -1640,19 +1670,22 @@
         <v>0</v>
       </c>
       <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
       <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
-      <c r="AE18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,13 +1717,14 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1773,13 +1807,16 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1854,30 +1891,33 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="3">
         <v>-100</v>
       </c>
       <c r="AE21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1897,12 +1937,12 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1951,8 +1991,11 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -2023,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="3">
         <v>-100</v>
@@ -2038,10 +2081,13 @@
         <v>-100</v>
       </c>
       <c r="AE23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,8 +2267,11 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2290,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="3">
         <v>-100</v>
@@ -2305,10 +2357,13 @@
         <v>-100</v>
       </c>
       <c r="AE26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2379,13 +2434,13 @@
         <v>0</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="3">
         <v>-100</v>
@@ -2394,10 +2449,13 @@
         <v>-100</v>
       </c>
       <c r="AE27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,13 +2819,16 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2841,8 +2911,11 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2913,13 +2986,13 @@
         <v>0</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="3">
         <v>-100</v>
@@ -2928,10 +3001,13 @@
         <v>-100</v>
       </c>
       <c r="AE33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,8 +3095,11 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3091,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="3">
         <v>-100</v>
@@ -3106,104 +3185,110 @@
         <v>-100</v>
       </c>
       <c r="AE35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,20 +3354,21 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -3343,22 +3430,25 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC41" s="3">
         <v>0</v>
       </c>
       <c r="AD41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3455,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3638,8 +3737,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -3653,8 +3752,8 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3713,20 +3812,23 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
@@ -3800,10 +3902,13 @@
         <v>100</v>
       </c>
       <c r="AE46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,13 +4364,16 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,19 +4548,22 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>300</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
@@ -4500,11 +4626,11 @@
         <v>100</v>
       </c>
       <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
-      <c r="AB54" s="3">
-        <v>100</v>
-      </c>
       <c r="AC54" s="3">
         <v>100</v>
       </c>
@@ -4512,10 +4638,13 @@
         <v>100</v>
       </c>
       <c r="AE54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4601,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -4669,28 +4800,31 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -4758,19 +4892,22 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -4847,20 +4984,23 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
@@ -4868,13 +5008,13 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -4936,8 +5076,11 @@
       <c r="AE60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,20 +5536,23 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
@@ -5402,13 +5560,13 @@
         <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -5470,8 +5628,11 @@
       <c r="AE66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,8 +6030,11 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5934,22 +6108,25 @@
         <v>-10000</v>
       </c>
       <c r="AA72" s="3">
-        <v>-9900</v>
+        <v>-10000</v>
       </c>
       <c r="AB72" s="3">
         <v>-9900</v>
       </c>
       <c r="AC72" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="AD72" s="3">
         <v>-9800</v>
       </c>
       <c r="AE72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="AF72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,8 +6398,11 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6236,13 +6422,13 @@
         <v>100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
@@ -6254,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
         <v>100</v>
@@ -6266,7 +6452,7 @@
         <v>100</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T76" s="3">
         <v>0</v>
@@ -6278,13 +6464,13 @@
         <v>0</v>
       </c>
       <c r="W76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X76" s="3">
         <v>100</v>
       </c>
       <c r="Y76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z76" s="3">
         <v>0</v>
@@ -6299,13 +6485,16 @@
         <v>0</v>
       </c>
       <c r="AD76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE76" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,102 +6582,108 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6559,13 +6754,13 @@
         <v>0</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC81" s="3">
         <v>-100</v>
@@ -6574,10 +6769,13 @@
         <v>-100</v>
       </c>
       <c r="AE81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,20 +7357,23 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -7218,10 +7435,10 @@
         <v>0</v>
       </c>
       <c r="AA89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC89" s="3">
         <v>0</v>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7294,14 +7515,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -7312,8 +7533,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -7324,38 +7545,41 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="3" t="s">
+      <c r="Z91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD91" s="3" t="s">
+      <c r="AC91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
       </c>
       <c r="AE91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7549,14 +7779,14 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -7606,23 +7836,26 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>8</v>
+      <c r="AA94" s="3">
+        <v>0</v>
       </c>
       <c r="AB94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD94" s="3" t="s">
+      <c r="AC94" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
       </c>
       <c r="AE94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8197,11 +8449,11 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
